--- a/file/stock_interface.xlsx
+++ b/file/stock_interface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC210BF5-42F5-463C-9853-86EEDDA7908D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB68693-6437-40EE-B008-43D219E6FC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2235" windowWidth="25230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,9 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
@@ -581,7 +583,9 @@
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>

--- a/file/stock_interface.xlsx
+++ b/file/stock_interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB68693-6437-40EE-B008-43D219E6FC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99399C9-F8FE-459E-B76C-4E3320E4C8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2235" windowWidth="25230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2235" windowWidth="25230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,20 @@
 'callback':'showStockData',
 'code': '000955'
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+'cate':'real',
+'type':'stock',
+'return':'json',
+'callback':'showStockData',
+'code': '000652'
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,6 +607,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/stock_interface.xlsx
+++ b/file/stock_interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99399C9-F8FE-459E-B76C-4E3320E4C8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840A5B39-31C5-42B0-86E2-5E27D3D94DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2235" windowWidth="25230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1845" windowWidth="25230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -137,6 +137,20 @@
   </si>
   <si>
     <t>泰达股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金健米业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+'cate':'real',
+'type':'stock',
+'return':'json',
+'callback':'showStockData',
+'code': '600127'
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,6 +638,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/stock_interface.xlsx
+++ b/file/stock_interface.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840A5B39-31C5-42B0-86E2-5E27D3D94DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96366ED7-CBA2-4ADD-8E7D-88B83734B417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="1845" windowWidth="25230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,18 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>欣龙控股</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国宝安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二六三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://qd.10jqka.com.cn/quote.php</t>
   </si>
   <si>
@@ -96,50 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-'cate':'real',
-'type':'stock',
-'return':'json',
-'callback':'showStockData',
-'code': '000009'
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-'cate':'real',
-'type':'stock',
-'return':'json',
-'callback':'showStockData',
-'code': '002467'
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-'cate':'real',
-'type':'stock',
-'return':'json',
-'callback':'showStockData',
-'code': '000955'
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-'cate':'real',
-'type':'stock',
-'return':'json',
-'callback':'showStockData',
-'code': '000652'
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰达股份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金健米业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,6 +95,62 @@
 'callback':'showStockData',
 'code': '600127'
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北制药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+'cate':'real',
+'type':'stock',
+'return':'json',
+'callback':'showStockData',
+'code': '600812'
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+'cate':'real',
+'type':'stock',
+'return':'json',
+'callback':'showStockData',
+'code': '000061'
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波建工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+'cate':'real',
+'type':'stock',
+'return':'json',
+'callback':'showStockData',
+'code': '601789'
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+'cate':'real',
+'type':'stock',
+'return':'json',
+'callback':'showStockData',
+'code': '000019'
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深粮控股</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="4" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="5" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="6" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="7" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -640,16 +640,16 @@
     </row>
     <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
